--- a/tests/demo/demo_smoke.xlsx
+++ b/tests/demo/demo_smoke.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Optum\hm-automation\tests\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80CED1D-0E2C-4151-B35F-CF4FCD27A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB48D79-4BAA-442B-B953-CC356F2F158C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Test ID</t>
   </si>
@@ -47,9 +46,6 @@
     <t>Plans</t>
   </si>
   <si>
-    <t>dtc-model</t>
-  </si>
-  <si>
     <t>Medicare Insurance</t>
   </si>
   <si>
@@ -72,6 +68,9 @@
   </si>
   <si>
     <t>Aetna Medicare Eagle Plan (PPO)</t>
+  </si>
+  <si>
+    <t>model</t>
   </si>
 </sst>
 </file>
@@ -444,7 +443,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -482,19 +481,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3">
         <v>30009</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -502,19 +501,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3">
         <v>30009</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -522,19 +521,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3">
         <v>30009</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -544,110 +543,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334683BF-0F24-44F2-9A29-D48A72A50A6B}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>30009</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>30009</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>30009</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>